--- a/research/Monte_carlo/inputs/OS fase 1 voor KWR.xlsx
+++ b/research/Monte_carlo/inputs/OS fase 1 voor KWR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kwrwater-my.sharepoint.com/personal/alex_hockin_kwrwater_nl/Documents/VEWIN Permatie/pipepermcalc/research/Monte_carlo/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{C3B12F8F-DA52-4A5F-B621-6F86E2507DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35F7397-AA06-455E-936E-E41B9522724A}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{C3B12F8F-DA52-4A5F-B621-6F86E2507DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF0C7BCB-324E-459C-8305-7159B016A87C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3465" yWindow="3450" windowWidth="21600" windowHeight="12855" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17550" xr2:uid="{AD21D055-21E3-4E7B-8054-7CDE3BF6ADC6}"/>
   </bookViews>
   <sheets>
     <sheet name="ah_data" sheetId="6" r:id="rId1"/>
@@ -4568,6 +4568,63 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4644,63 +4701,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7023,8 +7023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9F08B-8724-4B4C-A2FB-1ECC0D74C694}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17451,9 +17451,7 @@
   </sheetPr>
   <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23867,39 +23865,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR122"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="5" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="31" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="38" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="31" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="38" hidden="1" customWidth="1"/>
-    <col min="30" max="33" width="9.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="11" style="2" hidden="1" customWidth="1"/>
-    <col min="35" max="37" width="9.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="9.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="29" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="29" customWidth="1"/>
+    <col min="25" max="25" width="10" style="5" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="31" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="38" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="31" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="38" customWidth="1"/>
+    <col min="30" max="33" width="9.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="11" style="2" customWidth="1"/>
+    <col min="35" max="39" width="9.42578125" style="2" customWidth="1"/>
     <col min="40" max="40" width="10.7109375" style="2" customWidth="1"/>
     <col min="41" max="43" width="9.42578125" style="2" customWidth="1"/>
     <col min="44" max="44" width="46" style="1" customWidth="1"/>
@@ -23909,16 +23904,16 @@
   <sheetData>
     <row r="1" spans="1:44" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="256"/>
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="326"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="300"/>
       <c r="J1" s="294" t="s">
         <v>24</v>
       </c>
@@ -23927,22 +23922,22 @@
       <c r="M1" s="295"/>
       <c r="N1" s="295"/>
       <c r="O1" s="295"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="328" t="s">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="304"/>
       <c r="AD1" s="294" t="s">
         <v>35</v>
       </c>
@@ -23958,69 +23953,69 @@
       <c r="AN1" s="295"/>
       <c r="AO1" s="295"/>
       <c r="AP1" s="295"/>
-      <c r="AQ1" s="327"/>
+      <c r="AQ1" s="301"/>
       <c r="AR1" s="255"/>
     </row>
     <row r="2" spans="1:44" s="8" customFormat="1" ht="47.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="292" t="s">
         <v>801</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="334"/>
-      <c r="E2" s="335" t="s">
+      <c r="D2" s="308"/>
+      <c r="E2" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="338" t="s">
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="339"/>
+      <c r="K2" s="313"/>
       <c r="L2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="340" t="s">
+      <c r="M2" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="342"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
       <c r="Q2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="318" t="s">
+      <c r="R2" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="319"/>
+      <c r="S2" s="338"/>
       <c r="T2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="U2" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="320" t="s">
+      <c r="V2" s="339" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="320"/>
-      <c r="X2" s="320" t="s">
+      <c r="W2" s="339"/>
+      <c r="X2" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="320"/>
-      <c r="Z2" s="321" t="s">
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="340" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="322"/>
-      <c r="AB2" s="322" t="s">
+      <c r="AA2" s="341"/>
+      <c r="AB2" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="323"/>
+      <c r="AC2" s="342"/>
       <c r="AD2" s="289" t="s">
         <v>32</v>
       </c>
@@ -24039,13 +24034,13 @@
       <c r="AO2" s="290"/>
       <c r="AP2" s="290"/>
       <c r="AQ2" s="291"/>
-      <c r="AR2" s="298" t="s">
+      <c r="AR2" s="317" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="293"/>
-      <c r="B3" s="332"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
@@ -24167,7 +24162,7 @@
       <c r="AQ3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="299"/>
+      <c r="AR3" s="318"/>
     </row>
     <row r="4" spans="1:44" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -24176,47 +24171,47 @@
       <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="301"/>
-      <c r="E4" s="302" t="s">
+      <c r="D4" s="320"/>
+      <c r="E4" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="305"/>
+      <c r="K4" s="324"/>
       <c r="L4" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="306" t="s">
+      <c r="M4" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="308"/>
-      <c r="Q4" s="309" t="s">
+      <c r="N4" s="326"/>
+      <c r="O4" s="326"/>
+      <c r="P4" s="327"/>
+      <c r="Q4" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="310"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="312" t="s">
+      <c r="R4" s="329"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="313"/>
-      <c r="V4" s="313"/>
-      <c r="W4" s="313"/>
-      <c r="X4" s="313"/>
-      <c r="Y4" s="313"/>
-      <c r="Z4" s="313"/>
-      <c r="AA4" s="313"/>
-      <c r="AB4" s="313"/>
-      <c r="AC4" s="314"/>
+      <c r="U4" s="332"/>
+      <c r="V4" s="332"/>
+      <c r="W4" s="332"/>
+      <c r="X4" s="332"/>
+      <c r="Y4" s="332"/>
+      <c r="Z4" s="332"/>
+      <c r="AA4" s="332"/>
+      <c r="AB4" s="332"/>
+      <c r="AC4" s="333"/>
       <c r="AD4" s="296" t="s">
         <v>20</v>
       </c>
@@ -24227,14 +24222,14 @@
       <c r="AI4" s="297"/>
       <c r="AJ4" s="297"/>
       <c r="AK4" s="297"/>
-      <c r="AL4" s="315" t="s">
+      <c r="AL4" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="AM4" s="316"/>
-      <c r="AN4" s="316"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" s="317"/>
+      <c r="AM4" s="335"/>
+      <c r="AN4" s="335"/>
+      <c r="AO4" s="335"/>
+      <c r="AP4" s="335"/>
+      <c r="AQ4" s="336"/>
       <c r="AR4" s="231" t="s">
         <v>20</v>
       </c>
@@ -36732,17 +36727,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="Q1:AC1"/>
-    <mergeCell ref="AD1:AQ1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:I4"/>
@@ -36758,6 +36742,17 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:AC1"/>
+    <mergeCell ref="AD1:AQ1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="AL2:AQ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -36768,9 +36763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR139"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A138"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36800,16 +36793,16 @@
   <sheetData>
     <row r="1" spans="1:44" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="256"/>
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="326"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="300"/>
       <c r="J1" s="294" t="s">
         <v>24</v>
       </c>
@@ -36818,22 +36811,22 @@
       <c r="M1" s="295"/>
       <c r="N1" s="295"/>
       <c r="O1" s="295"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="328" t="s">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="304"/>
       <c r="AD1" s="294" t="s">
         <v>35</v>
       </c>
@@ -36849,69 +36842,69 @@
       <c r="AN1" s="295"/>
       <c r="AO1" s="295"/>
       <c r="AP1" s="295"/>
-      <c r="AQ1" s="327"/>
+      <c r="AQ1" s="301"/>
       <c r="AR1" s="255"/>
     </row>
     <row r="2" spans="1:44" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="292" t="s">
         <v>801</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="334"/>
-      <c r="E2" s="335" t="s">
+      <c r="D2" s="308"/>
+      <c r="E2" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="338" t="s">
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="339"/>
+      <c r="K2" s="313"/>
       <c r="L2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="340" t="s">
+      <c r="M2" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="342"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
       <c r="Q2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="318" t="s">
+      <c r="R2" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="319"/>
+      <c r="S2" s="338"/>
       <c r="T2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="U2" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="320" t="s">
+      <c r="V2" s="339" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="320"/>
-      <c r="X2" s="320" t="s">
+      <c r="W2" s="339"/>
+      <c r="X2" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="320"/>
-      <c r="Z2" s="321" t="s">
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="340" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="322"/>
-      <c r="AB2" s="322" t="s">
+      <c r="AA2" s="341"/>
+      <c r="AB2" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="323"/>
+      <c r="AC2" s="342"/>
       <c r="AD2" s="289" t="s">
         <v>32</v>
       </c>
@@ -36930,13 +36923,13 @@
       <c r="AO2" s="290"/>
       <c r="AP2" s="290"/>
       <c r="AQ2" s="291"/>
-      <c r="AR2" s="298" t="s">
+      <c r="AR2" s="317" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="8" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="293"/>
-      <c r="B3" s="332"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
@@ -37058,7 +37051,7 @@
       <c r="AQ3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="299"/>
+      <c r="AR3" s="318"/>
     </row>
     <row r="4" spans="1:44" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
@@ -50802,6 +50795,13 @@
   </sheetData>
   <autoFilter ref="A3:AU3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="18">
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AK2"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:AC1"/>
@@ -50813,13 +50813,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50830,9 +50823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="97" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A57"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -50871,16 +50862,16 @@
   <sheetData>
     <row r="1" spans="1:44" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="256"/>
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="326"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="300"/>
       <c r="J1" s="294" t="s">
         <v>24</v>
       </c>
@@ -50889,22 +50880,22 @@
       <c r="M1" s="295"/>
       <c r="N1" s="295"/>
       <c r="O1" s="295"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="328" t="s">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="304"/>
       <c r="AD1" s="294" t="s">
         <v>35</v>
       </c>
@@ -50920,69 +50911,69 @@
       <c r="AN1" s="295"/>
       <c r="AO1" s="295"/>
       <c r="AP1" s="295"/>
-      <c r="AQ1" s="327"/>
+      <c r="AQ1" s="301"/>
       <c r="AR1" s="255"/>
     </row>
     <row r="2" spans="1:44" s="8" customFormat="1" ht="47.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="292" t="s">
         <v>801</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="334"/>
-      <c r="E2" s="335" t="s">
+      <c r="D2" s="308"/>
+      <c r="E2" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="338" t="s">
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="339"/>
+      <c r="K2" s="313"/>
       <c r="L2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="340" t="s">
+      <c r="M2" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="342"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
       <c r="Q2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="318" t="s">
+      <c r="R2" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="319"/>
+      <c r="S2" s="338"/>
       <c r="T2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="U2" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="320" t="s">
+      <c r="V2" s="339" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="320"/>
-      <c r="X2" s="320" t="s">
+      <c r="W2" s="339"/>
+      <c r="X2" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="320"/>
-      <c r="Z2" s="321" t="s">
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="340" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="322"/>
-      <c r="AB2" s="322" t="s">
+      <c r="AA2" s="341"/>
+      <c r="AB2" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="323"/>
+      <c r="AC2" s="342"/>
       <c r="AD2" s="289" t="s">
         <v>32</v>
       </c>
@@ -51001,13 +50992,13 @@
       <c r="AO2" s="290"/>
       <c r="AP2" s="290"/>
       <c r="AQ2" s="291"/>
-      <c r="AR2" s="298" t="s">
+      <c r="AR2" s="317" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="293"/>
-      <c r="B3" s="332"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
@@ -51129,7 +51120,7 @@
       <c r="AQ3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="299"/>
+      <c r="AR3" s="318"/>
     </row>
     <row r="4" spans="1:44" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -51138,47 +51129,47 @@
       <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="301"/>
-      <c r="E4" s="302" t="s">
+      <c r="D4" s="320"/>
+      <c r="E4" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="305"/>
+      <c r="K4" s="324"/>
       <c r="L4" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="306" t="s">
+      <c r="M4" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="308"/>
-      <c r="Q4" s="309" t="s">
+      <c r="N4" s="326"/>
+      <c r="O4" s="326"/>
+      <c r="P4" s="327"/>
+      <c r="Q4" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="310"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="312" t="s">
+      <c r="R4" s="329"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="313"/>
-      <c r="V4" s="313"/>
-      <c r="W4" s="313"/>
-      <c r="X4" s="313"/>
-      <c r="Y4" s="313"/>
-      <c r="Z4" s="313"/>
-      <c r="AA4" s="313"/>
-      <c r="AB4" s="313"/>
-      <c r="AC4" s="314"/>
+      <c r="U4" s="332"/>
+      <c r="V4" s="332"/>
+      <c r="W4" s="332"/>
+      <c r="X4" s="332"/>
+      <c r="Y4" s="332"/>
+      <c r="Z4" s="332"/>
+      <c r="AA4" s="332"/>
+      <c r="AB4" s="332"/>
+      <c r="AC4" s="333"/>
       <c r="AD4" s="296" t="s">
         <v>20</v>
       </c>
@@ -51189,14 +51180,14 @@
       <c r="AI4" s="297"/>
       <c r="AJ4" s="297"/>
       <c r="AK4" s="297"/>
-      <c r="AL4" s="315" t="s">
+      <c r="AL4" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="AM4" s="316"/>
-      <c r="AN4" s="316"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" s="317"/>
+      <c r="AM4" s="335"/>
+      <c r="AN4" s="335"/>
+      <c r="AO4" s="335"/>
+      <c r="AP4" s="335"/>
+      <c r="AQ4" s="336"/>
       <c r="AR4" s="231" t="s">
         <v>20</v>
       </c>
@@ -56357,17 +56348,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="Q1:AC1"/>
-    <mergeCell ref="AD1:AQ1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:I4"/>
@@ -56383,6 +56363,17 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:AC1"/>
+    <mergeCell ref="AD1:AQ1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="AL2:AQ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
